--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.09599570118436294</v>
+        <v>0.03041816718429699</v>
       </c>
       <c r="C2">
-        <v>0.5687695952168114</v>
+        <v>0.5969587063387518</v>
       </c>
       <c r="D2">
-        <v>0.5414814343939269</v>
+        <v>0.6135877254643746</v>
       </c>
       <c r="E2">
-        <v>0.7358542208847666</v>
+        <v>0.7833184061825527</v>
       </c>
       <c r="F2">
-        <v>0.7408775744785207</v>
+        <v>0.8068171195228309</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09776743612662228</v>
+        <v>-0.04789084097653124</v>
       </c>
       <c r="C3">
-        <v>0.5887289839564055</v>
+        <v>0.5862677653873664</v>
       </c>
       <c r="D3">
-        <v>0.6144077353409525</v>
+        <v>0.4788442395089921</v>
       </c>
       <c r="E3">
-        <v>0.7838416519558988</v>
+        <v>0.6919857220412803</v>
       </c>
       <c r="F3">
-        <v>0.7897789584859314</v>
+        <v>0.7115722915054202</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01227197377223211</v>
+        <v>0.1177926702203448</v>
       </c>
       <c r="C4">
-        <v>0.4803375392592019</v>
+        <v>0.4865537041177135</v>
       </c>
       <c r="D4">
-        <v>0.3832853173051134</v>
+        <v>0.4034901151917371</v>
       </c>
       <c r="E4">
-        <v>0.6191004097116343</v>
+        <v>0.6352087178178029</v>
       </c>
       <c r="F4">
-        <v>0.6285759109596457</v>
+        <v>0.6434018492833459</v>
       </c>
       <c r="G4">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.00346170481959274</v>
+        <v>0.0673930302034892</v>
       </c>
       <c r="C5">
-        <v>0.6147728832718086</v>
+        <v>0.7138065010423513</v>
       </c>
       <c r="D5">
-        <v>0.6064996706984146</v>
+        <v>0.7470935248604208</v>
       </c>
       <c r="E5">
-        <v>0.7787808874763265</v>
+        <v>0.8643457206814995</v>
       </c>
       <c r="F5">
-        <v>0.7908479168122174</v>
+        <v>0.8882348708881498</v>
       </c>
       <c r="G5">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.003451015091393659</v>
+        <v>0.05303991285026294</v>
       </c>
       <c r="C6">
-        <v>0.5460456527309534</v>
+        <v>0.3939988076169078</v>
       </c>
       <c r="D6">
-        <v>0.5590757270690008</v>
+        <v>0.2884509084384082</v>
       </c>
       <c r="E6">
-        <v>0.7477136664987479</v>
+        <v>0.5370762594254267</v>
       </c>
       <c r="F6">
-        <v>0.7592987303181205</v>
+        <v>0.5508992928280517</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05657962988672276</v>
+        <v>0.1581559649138533</v>
       </c>
       <c r="C7">
-        <v>0.550599502780615</v>
+        <v>0.592388381727795</v>
       </c>
       <c r="D7">
-        <v>0.5231322429722448</v>
+        <v>0.503897605990655</v>
       </c>
       <c r="E7">
-        <v>0.7232788141320363</v>
+        <v>0.7098574546982338</v>
       </c>
       <c r="F7">
-        <v>0.732242331365319</v>
+        <v>0.7133123897002451</v>
       </c>
       <c r="G7">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05318392696493655</v>
+        <v>0.08165673678936797</v>
       </c>
       <c r="C8">
-        <v>0.5993199587421405</v>
+        <v>0.4634199137647063</v>
       </c>
       <c r="D8">
-        <v>0.559908225789307</v>
+        <v>0.3661953718989556</v>
       </c>
       <c r="E8">
-        <v>0.7482701556184818</v>
+        <v>0.6051407868413395</v>
       </c>
       <c r="F8">
-        <v>0.7579501541609313</v>
+        <v>0.6180598846900753</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AVERAGE_1_6_qoq_forecast_error_table_latest_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1581559649138533</v>
+        <v>0.2555986832542369</v>
       </c>
       <c r="C7">
-        <v>0.592388381727795</v>
+        <v>0.4969596607080333</v>
       </c>
       <c r="D7">
-        <v>0.503897605990655</v>
+        <v>0.4509468104305381</v>
       </c>
       <c r="E7">
-        <v>0.7098574546982338</v>
+        <v>0.6715257332601172</v>
       </c>
       <c r="F7">
-        <v>0.7133123897002451</v>
+        <v>0.658648722000501</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08165673678936797</v>
+        <v>0.1981259026106764</v>
       </c>
       <c r="C8">
-        <v>0.4634199137647063</v>
+        <v>0.4731767774008284</v>
       </c>
       <c r="D8">
-        <v>0.3661953718989556</v>
+        <v>0.4677985065100134</v>
       </c>
       <c r="E8">
-        <v>0.6051407868413395</v>
+        <v>0.6839579713038026</v>
       </c>
       <c r="F8">
-        <v>0.6180598846900753</v>
+        <v>0.6943433677783694</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
